--- a/Unity Project/Assets/Resources/Data/Player/PlayerDataExcel.xlsx
+++ b/Unity Project/Assets/Resources/Data/Player/PlayerDataExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\RRD\Unity Project\Assets\Resources\Data\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1EEBB3-CFF2-45B5-A1B4-9919F791159F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A256D6F-F86D-412C-9D95-47621A15435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13995" yWindow="1815" windowWidth="14550" windowHeight="11385" xr2:uid="{EC4BB0B1-CB98-4EFD-AB17-7165708D9804}"/>
+    <workbookView xWindow="12405" yWindow="2295" windowWidth="14550" windowHeight="11385" xr2:uid="{EC4BB0B1-CB98-4EFD-AB17-7165708D9804}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,7 +508,7 @@
         <v>300</v>
       </c>
       <c r="D2">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>100</v>

--- a/Unity Project/Assets/Resources/Data/Player/PlayerDataExcel.xlsx
+++ b/Unity Project/Assets/Resources/Data/Player/PlayerDataExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\RRD\Unity Project\Assets\Resources\Data\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A256D6F-F86D-412C-9D95-47621A15435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6E4343-4FE8-4AA7-B151-023F75544E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12405" yWindow="2295" windowWidth="14550" windowHeight="11385" xr2:uid="{EC4BB0B1-CB98-4EFD-AB17-7165708D9804}"/>
+    <workbookView xWindow="7905" yWindow="3195" windowWidth="14550" windowHeight="11385" xr2:uid="{EC4BB0B1-CB98-4EFD-AB17-7165708D9804}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
         <v>300</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="E2">
         <v>100</v>

--- a/Unity Project/Assets/Resources/Data/Player/PlayerDataExcel.xlsx
+++ b/Unity Project/Assets/Resources/Data/Player/PlayerDataExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\RRD\Unity Project\Assets\Resources\Data\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\RRD\Unity Project\Assets\Resources\Data\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6E4343-4FE8-4AA7-B151-023F75544E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793E15B2-F976-433B-A775-D5EC814A654E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7905" yWindow="3195" windowWidth="14550" windowHeight="11385" xr2:uid="{EC4BB0B1-CB98-4EFD-AB17-7165708D9804}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{EC4BB0B1-CB98-4EFD-AB17-7165708D9804}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
